--- a/Web API.xlsx
+++ b/Web API.xlsx
@@ -46,19 +46,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/Admin/GetAdmins?username=&amp;typeId=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":1,"username":"admin","password":"123456","typeId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":2,"username":"chad","password":"123456","typeId":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":5,"username":"lance","password":"123456","typeId":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Content-Type:application/json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":5,"username":"lulu","password":"12345","typeId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type:application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Admin/AddAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{username:'lulu',password:'12345',typeId:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Admin/DeleteAdmin/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[{"id":2,"username":"chad","password":"123456","typeId":2},{"id":3,"username":"catherine","password":"123456","typeId":2}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/Admin/GetAdmins?username=&amp;typeId=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
+    <t>{username:'lance',password:'123456',typeId:2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Admin/DeleteAdmins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{id:14},{id:15}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,71 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":1,"username":"admin","password":"123456","typeId":1}</t>
+    <t>/api/Admin/UpdateAdmin/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/Admin/GetAdmin?username=chad&amp;password=123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":2,"username":"chad","password":"123456","typeId":2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{username:'lance',password:'123456',typeId:2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":5,"username":"lance","password":"123456","typeId":2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type:application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type:application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":5,"username":"lulu","password":"12345","typeId":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/Admin/DeleteAdmin/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type:application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type:application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/Admin/AddAdmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/Admin/UpdateAdmin/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{username:'lulu',password:'12345',typeId:1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,67 +194,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -267,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,106 +548,112 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="b">
+      <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
